--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_01.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_01.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yasuhiro Endo</t>
+          <t>Ryohei Yamada</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
